--- a/medicine/Enfance/Next_Liberty/Next_Liberty.xlsx
+++ b/medicine/Enfance/Next_Liberty/Next_Liberty.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Next Liberty est un théâtre pour la jeunesse de Graz situé dans l'Innere Stadt. Avec plus de 200 représentations et 65 000 spectateurs par saison, c'est l'un des théâtres germanophones les plus importants.
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1995, les Scènes unies de Graz ont inauguré dans l'Opernhaus Graz un espace pour les enfants. Son nom vient d'une sculpture de Hartmut Skerbisch située à proximité, Sabre-laser et inspirée par la statue de la Liberté.
 </t>
